--- a/bisc _rvc_2018 _sites .xlsx
+++ b/bisc _rvc_2018 _sites .xlsx
@@ -38,19 +38,19 @@
     <t>SPGR_LR</t>
   </si>
   <si>
-    <t>Site</t>
+    <t>site</t>
   </si>
   <si>
-    <t>Latitude</t>
+    <t>lat</t>
   </si>
   <si>
-    <t>Longitude</t>
+    <t>long</t>
   </si>
   <si>
-    <t>Depth (m)</t>
+    <t>depth_m</t>
   </si>
   <si>
-    <t>Habitat</t>
+    <t>habitat</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
